--- a/시장분석용_정보/시장분석용_4617035000.xlsx
+++ b/시장분석용_정보/시장분석용_4617035000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="110">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 4159039936</t>
   </si>
   <si>
@@ -232,22 +322,25 @@
     <t>202205 5019274320</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxMTkxIzQxIyQxIyQ3IyQ3OSQzNjEyMjIjODEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkNDgxMzUxIzIxIyQyIyQ1IyQwMCQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
     <t>나주동강의원</t>
   </si>
   <si>
     <t>제일의원</t>
   </si>
   <si>
-    <t>전라남도 나주시 동강면 동강로 599</t>
-  </si>
-  <si>
-    <t>전라남도 나주시 동강면 동강로 590 동강면</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxMTkxIzQxIyQxIyQ3IyQ3OSQzNjEyMjIjODEjJDEjJDYjJDgz</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkNDgxMzUxIzIxIyQyIyQ1IyQwMCQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+    <t>전라남도 나주시 동강면 동강로 599 (동강면)</t>
+  </si>
+  <si>
+    <t>전라남도 나주시 동강면 동강로 590 동강제일약국</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -608,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,43 +804,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>15546</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>54064241</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>4159039936</v>
       </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J2">
+        <v>4617035000</v>
+      </c>
+      <c r="K2">
         <v>51.03030303030304</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2">
-        <v>4617035000</v>
+      <c r="L2" t="s">
+        <v>109</v>
       </c>
       <c r="M2">
         <v>363415</v>
@@ -759,10 +942,10 @@
         <v>23533</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>94.33</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -771,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>9.35</v>
@@ -786,13 +969,13 @@
         <v>84.98999999999999</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>94.33</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -801,54 +984,144 @@
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>5.67</v>
+      </c>
+      <c r="AM2">
+        <v>9.35</v>
+      </c>
+      <c r="AN2">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>94.33</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>5.67</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>5.67</v>
+      </c>
+      <c r="BA2">
+        <v>94.33</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>9.35</v>
+      </c>
+      <c r="BH2">
+        <v>9.35</v>
+      </c>
+      <c r="BI2">
+        <v>9.35</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>16360</v>
+        <v>1332</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
         <v>202001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>112069042</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>5019274320</v>
       </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J3">
+        <v>4617035000</v>
+      </c>
+      <c r="K3">
         <v>60.90909090909091</v>
       </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3">
-        <v>4617035000</v>
+      <c r="L3" t="s">
+        <v>109</v>
       </c>
       <c r="M3">
         <v>675354</v>
@@ -860,7 +1133,7 @@
         <v>26240</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -869,87 +1142,177 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>24.09</v>
+      </c>
+      <c r="T3">
         <v>3.05</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0</v>
+        <v>29.95</v>
       </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>42.91</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>41.77</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
+        <v>55.18</v>
+      </c>
+      <c r="AA3">
+        <v>3.05</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>3.05</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>41.77</v>
+      </c>
+      <c r="AM3">
         <v>1.14</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>54.04</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>98.86</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>1.14</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>41.77</v>
+      </c>
+      <c r="BA3">
+        <v>4.19</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>54.04</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>24.09</v>
+      </c>
+      <c r="BH3">
+        <v>54.04</v>
+      </c>
+      <c r="BI3">
+        <v>54.04</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>37853</v>
+        <v>2859</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
         <v>202002</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>112069042</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>5019274320</v>
       </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J4">
+        <v>4617035000</v>
+      </c>
+      <c r="K4">
         <v>60.90909090909091</v>
       </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4">
-        <v>4617035000</v>
+      <c r="L4" t="s">
+        <v>109</v>
       </c>
       <c r="M4">
         <v>1709407</v>
@@ -961,96 +1324,186 @@
         <v>37256</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>65.55</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>24.69</v>
+      </c>
+      <c r="V4">
+        <v>9.75</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>1.88</v>
       </c>
-      <c r="S4">
+      <c r="Z4">
+        <v>20.94</v>
+      </c>
+      <c r="AA4">
+        <v>77.18000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1.88</v>
+      </c>
+      <c r="AI4">
         <v>29.76</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>45.54</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>19.5</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>1.88</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>1.43</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>11.18</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>66.45</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>22.37</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>19.5</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0.45</v>
+      </c>
+      <c r="BA4">
+        <v>33.07</v>
+      </c>
+      <c r="BB4">
+        <v>46.97</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>9.75</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>2.33</v>
+      </c>
+      <c r="BI4">
+        <v>2.33</v>
+      </c>
+      <c r="BJ4">
+        <v>11.1</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>59226</v>
+        <v>4389</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
         <v>202003</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>112069042</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>5019274320</v>
       </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J5">
+        <v>4617035000</v>
+      </c>
+      <c r="K5">
         <v>60.90909090909091</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5">
-        <v>4617035000</v>
+      <c r="L5" t="s">
+        <v>109</v>
       </c>
       <c r="M5">
         <v>438792</v>
@@ -1062,7 +1515,7 @@
         <v>14767</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1071,87 +1524,177 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>3.84</v>
+      </c>
+      <c r="T5">
+        <v>53.05</v>
+      </c>
+      <c r="U5">
+        <v>3.84</v>
+      </c>
+      <c r="V5">
         <v>39.28</v>
       </c>
-      <c r="T5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>96.16</v>
+      </c>
+      <c r="AA5">
+        <v>3.84</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>39.28</v>
+      </c>
+      <c r="AJ5">
         <v>52.37</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>8.35</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>47.63</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>52.37</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>39.28</v>
+      </c>
+      <c r="BB5">
+        <v>52.37</v>
+      </c>
+      <c r="BC5">
+        <v>8.35</v>
+      </c>
+      <c r="BD5">
+        <v>52.37</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>47.63</v>
+      </c>
+      <c r="BH5">
+        <v>47.63</v>
+      </c>
+      <c r="BI5">
+        <v>86.91</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>80684</v>
+        <v>5908</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
         <v>202004</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>112069042</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>5019274320</v>
       </c>
-      <c r="G6" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J6">
+        <v>4617035000</v>
+      </c>
+      <c r="K6">
         <v>60.90909090909091</v>
       </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6">
-        <v>4617035000</v>
+      <c r="L6" t="s">
+        <v>109</v>
       </c>
       <c r="M6">
         <v>910030</v>
@@ -1163,96 +1706,186 @@
         <v>29467</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>72.45</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>27.55</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>23.53</v>
+      </c>
+      <c r="T6">
+        <v>4.75</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>44.17</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>27.55</v>
+      </c>
+      <c r="Y6">
+        <v>21.61</v>
+      </c>
+      <c r="Z6">
+        <v>76.47</v>
+      </c>
+      <c r="AA6">
+        <v>1.92</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>71.72</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>1.92</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>19.68</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>6.67</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>34.22</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>63.86</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
         <v>1.92</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>19.68</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>73.64</v>
+      </c>
+      <c r="BC6">
+        <v>6.67</v>
+      </c>
+      <c r="BD6">
+        <v>29.47</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>6.67</v>
+      </c>
+      <c r="BH6">
+        <v>6.67</v>
+      </c>
+      <c r="BI6">
+        <v>6.67</v>
+      </c>
+      <c r="BJ6">
+        <v>60</v>
+      </c>
+      <c r="BK6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>102314</v>
+        <v>7456</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7">
         <v>202005</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>112069042</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>5019274320</v>
       </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J7">
+        <v>4617035000</v>
+      </c>
+      <c r="K7">
         <v>60.90909090909091</v>
       </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7">
-        <v>4617035000</v>
+      <c r="L7" t="s">
+        <v>109</v>
       </c>
       <c r="M7">
         <v>1109652</v>
@@ -1264,96 +1897,186 @@
         <v>26400</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>62.26</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2.56</v>
+      </c>
+      <c r="W7">
+        <v>2.98</v>
+      </c>
+      <c r="X7">
+        <v>32.2</v>
+      </c>
+      <c r="Y7">
+        <v>54.21</v>
+      </c>
+      <c r="Z7">
+        <v>45.79</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>33.14</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>14.96</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>14.11</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>32.24</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>5.54</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>29.07</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>6.11</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>33.85</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>2.56</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>28.41</v>
       </c>
+      <c r="AX7">
+        <v>0.71</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>28.41</v>
+      </c>
+      <c r="BB7">
+        <v>70.88</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>29.07</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>2.56</v>
+      </c>
+      <c r="BI7">
+        <v>2.56</v>
+      </c>
+      <c r="BJ7">
+        <v>12.5</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>123214</v>
+        <v>8086</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
         <v>202006</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>54064241</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>4159039936</v>
       </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J8">
+        <v>4617035000</v>
+      </c>
+      <c r="K8">
         <v>51.03030303030304</v>
       </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8">
-        <v>4617035000</v>
+      <c r="L8" t="s">
+        <v>109</v>
       </c>
       <c r="M8">
         <v>79279</v>
@@ -1365,16 +2088,16 @@
         <v>5167</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>57.42</v>
+        <v>9.68</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1389,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="Y8">
         <v>42.58</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>57.42</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1407,54 +2130,144 @@
         <v>0</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>57.42</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>42.58</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
         <v>100</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>57.42</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>42.58</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>100</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>50</v>
+      </c>
+      <c r="BK8">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>124024</v>
+        <v>8994</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
         <v>202006</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>112069042</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>5019274320</v>
       </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J9">
+        <v>4617035000</v>
+      </c>
+      <c r="K9">
         <v>60.90909090909091</v>
       </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9">
-        <v>4617035000</v>
+      <c r="L9" t="s">
+        <v>109</v>
       </c>
       <c r="M9">
         <v>412416</v>
@@ -1466,7 +2279,7 @@
         <v>11414</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1475,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>2.38</v>
+        <v>4.26</v>
       </c>
       <c r="T9">
-        <v>70.59</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>46.93</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>31.04</v>
       </c>
       <c r="W9">
         <v>17.77</v>
@@ -1493,69 +2306,159 @@
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>82.23</v>
+      </c>
+      <c r="AA9">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>2.38</v>
+      </c>
+      <c r="AJ9">
+        <v>70.59</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>17.77</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>9.26</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>40.3</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>39.55</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>11.76</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>8.390000000000001</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>39.55</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>20.15</v>
+      </c>
+      <c r="BB9">
+        <v>31.04</v>
+      </c>
+      <c r="BC9">
+        <v>9.26</v>
+      </c>
+      <c r="BD9">
+        <v>31.04</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>40.3</v>
+      </c>
+      <c r="BH9">
+        <v>40.3</v>
+      </c>
+      <c r="BI9">
+        <v>40.3</v>
+      </c>
+      <c r="BJ9">
+        <v>16.7</v>
+      </c>
+      <c r="BK9">
+        <v>16.7</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>145751</v>
+        <v>10541</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
         <v>202007</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>112069042</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>5019274320</v>
       </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J10">
+        <v>4617035000</v>
+      </c>
+      <c r="K10">
         <v>60.90909090909091</v>
       </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10">
-        <v>4617035000</v>
+      <c r="L10" t="s">
+        <v>109</v>
       </c>
       <c r="M10">
         <v>346907</v>
@@ -1567,13 +2470,13 @@
         <v>16950</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>53.39</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>46.61</v>
       </c>
       <c r="R10">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>37.46</v>
@@ -1582,81 +2485,171 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>7.96</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
-        <v>0</v>
+        <v>46.61</v>
       </c>
       <c r="Y10">
+        <v>62.54</v>
+      </c>
+      <c r="Z10">
+        <v>37.46</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>7.96</v>
+      </c>
+      <c r="AI10">
+        <v>37.46</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>7.96</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>46.61</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>46.61</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>45.43</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>7.96</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>15.93</v>
+      </c>
+      <c r="BA10">
+        <v>37.46</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>46.61</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>46.61</v>
+      </c>
+      <c r="BH10">
+        <v>54.57</v>
+      </c>
+      <c r="BI10">
+        <v>54.57</v>
+      </c>
+      <c r="BJ10">
+        <v>25</v>
+      </c>
+      <c r="BK10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>166661</v>
+        <v>11183</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
         <v>202008</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>54064241</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>4159039936</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J11">
+        <v>4617035000</v>
+      </c>
+      <c r="K11">
         <v>51.03030303030304</v>
       </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11">
-        <v>4617035000</v>
+      <c r="L11" t="s">
+        <v>109</v>
       </c>
       <c r="M11">
         <v>15769</v>
@@ -1668,7 +2661,7 @@
         <v>1550</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1677,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>51.61</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1695,11 +2688,11 @@
         <v>0</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>100</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
         <v>0</v>
       </c>
@@ -1710,54 +2703,144 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>100</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>100</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>100</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>100</v>
+      </c>
+      <c r="BH11">
+        <v>100</v>
+      </c>
+      <c r="BI11">
+        <v>100</v>
+      </c>
+      <c r="BJ11">
+        <v>100</v>
+      </c>
+      <c r="BK11">
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>167468</v>
+        <v>12089</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
         <v>202008</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>112069042</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>5019274320</v>
       </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J12">
+        <v>4617035000</v>
+      </c>
+      <c r="K12">
         <v>60.90909090909091</v>
       </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12">
-        <v>4617035000</v>
+      <c r="L12" t="s">
+        <v>109</v>
       </c>
       <c r="M12">
         <v>570791</v>
@@ -1769,96 +2852,186 @@
         <v>21360</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>37.08</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>62.92</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>32.58</v>
+      </c>
+      <c r="U12">
+        <v>4.49</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>62.92</v>
+      </c>
+      <c r="Y12">
+        <v>89.89</v>
+      </c>
+      <c r="Z12">
+        <v>10.11</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>57.87</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>42.13</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>85.95999999999999</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>4.49</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>9.550000000000001</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>100</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>100</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>32.58</v>
+      </c>
+      <c r="BH12">
+        <v>32.58</v>
+      </c>
+      <c r="BI12">
+        <v>32.58</v>
+      </c>
+      <c r="BJ12">
+        <v>25</v>
+      </c>
+      <c r="BK12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>188370</v>
+        <v>12736</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
         <v>202009</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>54064241</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>4159039936</v>
       </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J13">
+        <v>4617035000</v>
+      </c>
+      <c r="K13">
         <v>51.03030303030304</v>
       </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13">
-        <v>4617035000</v>
+      <c r="L13" t="s">
+        <v>109</v>
       </c>
       <c r="M13">
         <v>28108</v>
@@ -1870,7 +3043,7 @@
         <v>2750</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1879,17 +3052,17 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>27.27</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>72.73</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
@@ -1897,69 +3070,159 @@
         <v>0</v>
       </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>100</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>72.73</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>27.27</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>72.73</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>27.27</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>72.73</v>
+      </c>
+      <c r="BC13">
+        <v>27.27</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>100</v>
+      </c>
+      <c r="BH13">
+        <v>100</v>
+      </c>
+      <c r="BI13">
+        <v>100</v>
+      </c>
+      <c r="BJ13">
+        <v>50</v>
+      </c>
+      <c r="BK13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>189176</v>
+        <v>13639</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
         <v>202009</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2020</v>
       </c>
-      <c r="E14">
-        <v>112069042</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>5019274320</v>
       </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J14">
+        <v>4617035000</v>
+      </c>
+      <c r="K14">
         <v>60.90909090909091</v>
       </c>
-      <c r="K14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14">
-        <v>4617035000</v>
+      <c r="L14" t="s">
+        <v>109</v>
       </c>
       <c r="M14">
         <v>208058</v>
@@ -1971,96 +3234,186 @@
         <v>5814</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="W14">
         <v>0.25</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>58.97</v>
+      </c>
+      <c r="Z14">
+        <v>29.24</v>
+      </c>
+      <c r="AA14">
         <v>11.79</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>17.2</v>
+      </c>
+      <c r="AH14">
+        <v>4.42</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0.25</v>
+      </c>
+      <c r="AN14">
+        <v>11.79</v>
+      </c>
+      <c r="AO14">
         <v>66.34</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>82.56</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
         <v>17.2</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>0.25</v>
       </c>
+      <c r="AX14">
+        <v>4.42</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>17.2</v>
+      </c>
+      <c r="BA14">
+        <v>12.04</v>
+      </c>
+      <c r="BB14">
+        <v>11.79</v>
+      </c>
+      <c r="BC14">
+        <v>54.55</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>66.34</v>
+      </c>
+      <c r="BH14">
+        <v>66.34</v>
+      </c>
+      <c r="BI14">
+        <v>66.34</v>
+      </c>
+      <c r="BJ14">
+        <v>16.7</v>
+      </c>
+      <c r="BK14">
+        <v>16.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>210907</v>
+        <v>15186</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15">
         <v>202010</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="E15">
-        <v>112069042</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>5019274320</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J15">
+        <v>4617035000</v>
+      </c>
+      <c r="K15">
         <v>60.90909090909091</v>
       </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15">
-        <v>4617035000</v>
+      <c r="L15" t="s">
+        <v>109</v>
       </c>
       <c r="M15">
         <v>1380663</v>
@@ -2072,96 +3425,186 @@
         <v>42783</v>
       </c>
       <c r="P15">
+        <v>97.08</v>
+      </c>
+      <c r="Q15">
+        <v>2.92</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>13.63</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>27.27</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="W15">
+        <v>28.91</v>
+      </c>
+      <c r="X15">
+        <v>2.92</v>
+      </c>
+      <c r="Y15">
+        <v>4.56</v>
+      </c>
+      <c r="Z15">
+        <v>40.9</v>
+      </c>
+      <c r="AA15">
+        <v>54.54</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>13.63</v>
+      </c>
+      <c r="AG15">
         <v>27.27</v>
       </c>
-      <c r="X15">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>27.27</v>
+      </c>
+      <c r="AN15">
         <v>30.19</v>
       </c>
-      <c r="Y15">
+      <c r="AO15">
         <v>1.64</v>
       </c>
-      <c r="Z15">
+      <c r="AP15">
         <v>27.27</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
         <v>31.83</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>40.9</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>15.27</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>54.54</v>
+      </c>
+      <c r="BA15">
+        <v>30.19</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>27.27</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>13.63</v>
+      </c>
+      <c r="BG15">
+        <v>31.83</v>
+      </c>
+      <c r="BH15">
+        <v>59.1</v>
+      </c>
+      <c r="BI15">
+        <v>72.73</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>231886</v>
+        <v>15831</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
         <v>202011</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2020</v>
       </c>
-      <c r="E16">
-        <v>54064241</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>4159039936</v>
       </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J16">
+        <v>4617035000</v>
+      </c>
+      <c r="K16">
         <v>51.03030303030304</v>
       </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16">
-        <v>4617035000</v>
+      <c r="L16" t="s">
+        <v>109</v>
       </c>
       <c r="M16">
         <v>54984</v>
@@ -2173,7 +3616,7 @@
         <v>2700</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2182,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2191,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2200,69 +3643,159 @@
         <v>0</v>
       </c>
       <c r="Y16">
+        <v>13.89</v>
+      </c>
+      <c r="Z16">
+        <v>86.11</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>100</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>100</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>100</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>100</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>100</v>
+      </c>
+      <c r="BJ16">
+        <v>100</v>
+      </c>
+      <c r="BK16">
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>232693</v>
+        <v>16733</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
         <v>202011</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2020</v>
       </c>
-      <c r="E17">
-        <v>112069042</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>5019274320</v>
       </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J17">
+        <v>4617035000</v>
+      </c>
+      <c r="K17">
         <v>60.90909090909091</v>
       </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17">
-        <v>4617035000</v>
+      <c r="L17" t="s">
+        <v>109</v>
       </c>
       <c r="M17">
         <v>770800</v>
@@ -2274,7 +3807,7 @@
         <v>30280</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2283,87 +3816,177 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>39.37</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>49.41</v>
+      </c>
+      <c r="V17">
+        <v>11.23</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>13.87</v>
+      </c>
+      <c r="Z17">
+        <v>86.13</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>15.85</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>2.64</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>60.63</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>20.87</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>23.51</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>15.85</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>49.41</v>
       </c>
-      <c r="AG17">
+      <c r="AW17">
         <v>11.23</v>
       </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>49.41</v>
+      </c>
+      <c r="BA17">
+        <v>29.72</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>20.87</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>20.87</v>
+      </c>
+      <c r="BH17">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="BI17">
+        <v>84.15000000000001</v>
+      </c>
+      <c r="BJ17">
+        <v>20</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>253717</v>
+        <v>17376</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
         <v>202012</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2020</v>
       </c>
-      <c r="E18">
-        <v>54064241</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>4159039936</v>
       </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J18">
+        <v>4617035000</v>
+      </c>
+      <c r="K18">
         <v>51.03030303030304</v>
       </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18">
-        <v>4617035000</v>
+      <c r="L18" t="s">
+        <v>109</v>
       </c>
       <c r="M18">
         <v>15260</v>
@@ -2375,7 +3998,7 @@
         <v>1500</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2390,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2402,11 +4025,11 @@
         <v>0</v>
       </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>100</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AA18">
         <v>0</v>
       </c>
@@ -2417,54 +4040,144 @@
         <v>0</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>100</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>100</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>100</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>100</v>
+      </c>
+      <c r="BH18">
+        <v>100</v>
+      </c>
+      <c r="BI18">
+        <v>100</v>
+      </c>
+      <c r="BJ18">
+        <v>100</v>
+      </c>
+      <c r="BK18">
+        <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>254527</v>
+        <v>18278</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19">
         <v>202012</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2020</v>
       </c>
-      <c r="E19">
-        <v>112069042</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>5019274320</v>
       </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J19">
+        <v>4617035000</v>
+      </c>
+      <c r="K19">
         <v>60.90909090909091</v>
       </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19">
-        <v>4617035000</v>
+      <c r="L19" t="s">
+        <v>109</v>
       </c>
       <c r="M19">
         <v>402822</v>
@@ -2476,10 +4189,10 @@
         <v>13067</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>92.73</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>7.27</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2488,84 +4201,174 @@
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>82.78</v>
+      </c>
+      <c r="X19">
+        <v>7.27</v>
+      </c>
+      <c r="Y19">
+        <v>13.52</v>
+      </c>
+      <c r="Z19">
+        <v>86.48</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1.91</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>8.039999999999999</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>90.05</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>91.95999999999999</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>8.039999999999999</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="BH19">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="BI19">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="BJ19">
+        <v>33.3</v>
+      </c>
+      <c r="BK19">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>276353</v>
+        <v>19812</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20">
         <v>202101</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>112069042</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>5019274320</v>
       </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J20">
+        <v>4617035000</v>
+      </c>
+      <c r="K20">
         <v>60.90909090909091</v>
       </c>
-      <c r="K20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20">
-        <v>4617035000</v>
+      <c r="L20" t="s">
+        <v>109</v>
       </c>
       <c r="M20">
         <v>115210</v>
@@ -2577,7 +4380,7 @@
         <v>5675</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2586,87 +4389,177 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>61.23</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
+        <v>22.03</v>
+      </c>
+      <c r="V20">
+        <v>16.74</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>83.26000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>16.74</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
         <v>48.46</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>51.54</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>48.46</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>51.54</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>48.46</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>51.54</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>48.46</v>
+      </c>
+      <c r="BG20">
+        <v>100</v>
+      </c>
+      <c r="BH20">
+        <v>100</v>
+      </c>
+      <c r="BI20">
+        <v>100</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>320080</v>
+        <v>22884</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21">
         <v>202103</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>112069042</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>5019274320</v>
       </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J21">
+        <v>4617035000</v>
+      </c>
+      <c r="K21">
         <v>60.90909090909091</v>
       </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21">
-        <v>4617035000</v>
+      <c r="L21" t="s">
+        <v>109</v>
       </c>
       <c r="M21">
         <v>92792</v>
@@ -2678,7 +4571,7 @@
         <v>3500</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2687,87 +4580,177 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>32.57</v>
+      </c>
+      <c r="V21">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="W21">
+        <v>57.71</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>33.14</v>
+      </c>
+      <c r="AA21">
+        <v>66.86</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>26.29</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>32.57</v>
       </c>
-      <c r="U21">
+      <c r="AK21">
         <v>9.710000000000001</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>31.43</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>33.14</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
         <v>57.71</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
         <v>9.140000000000001</v>
       </c>
+      <c r="AX21">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>57.71</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>32.57</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="BG21">
+        <v>54.86</v>
+      </c>
+      <c r="BH21">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="BI21">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>342064</v>
+        <v>24437</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
         <v>202104</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>112069042</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>5019274320</v>
       </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J22">
+        <v>4617035000</v>
+      </c>
+      <c r="K22">
         <v>60.90909090909091</v>
       </c>
-      <c r="K22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22">
-        <v>4617035000</v>
+      <c r="L22" t="s">
+        <v>109</v>
       </c>
       <c r="M22">
         <v>15259</v>
@@ -2779,13 +4762,13 @@
         <v>1500</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2797,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2806,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2821,54 +4804,144 @@
         <v>0</v>
       </c>
       <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>50</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>50</v>
       </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>50</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>50</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>50</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>50</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>50</v>
+      </c>
+      <c r="BI22">
+        <v>50</v>
+      </c>
+      <c r="BJ22">
+        <v>50</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>363276</v>
+        <v>25104</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23">
         <v>202105</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>54064241</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>4159039936</v>
       </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J23">
+        <v>4617035000</v>
+      </c>
+      <c r="K23">
         <v>51.03030303030304</v>
       </c>
-      <c r="K23" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23">
-        <v>4617035000</v>
+      <c r="L23" t="s">
+        <v>109</v>
       </c>
       <c r="M23">
         <v>288618</v>
@@ -2883,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2904,72 +4977,162 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>100</v>
+      </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>87.72</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>12.28</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
         <v>12.28</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>87.72</v>
       </c>
-      <c r="AG23">
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>87.72</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>12.28</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>12.28</v>
+      </c>
+      <c r="BH23">
+        <v>12.28</v>
+      </c>
+      <c r="BI23">
+        <v>12.28</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>364084</v>
+        <v>26004</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
         <v>202105</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>112069042</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>5019274320</v>
       </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J24">
+        <v>4617035000</v>
+      </c>
+      <c r="K24">
         <v>60.90909090909091</v>
       </c>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24">
-        <v>4617035000</v>
+      <c r="L24" t="s">
+        <v>109</v>
       </c>
       <c r="M24">
         <v>103801</v>
@@ -2981,10 +5144,10 @@
         <v>6833</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>31.22</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>68.78</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3005,72 +5168,162 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>28.29</v>
+        <v>68.78</v>
       </c>
       <c r="Y24">
         <v>40.49</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>28.29</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>31.22</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>31.22</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>28.29</v>
+      </c>
+      <c r="AO24">
         <v>40.49</v>
       </c>
-      <c r="AD24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>40.49</v>
+      </c>
+      <c r="AT24">
         <v>28.29</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>31.22</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>31.22</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>28.29</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>40.49</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>68.78</v>
+      </c>
+      <c r="BH24">
+        <v>68.78</v>
+      </c>
+      <c r="BI24">
+        <v>68.78</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>385387</v>
+        <v>26674</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
         <v>202106</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>54064241</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>4159039936</v>
       </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J25">
+        <v>4617035000</v>
+      </c>
+      <c r="K25">
         <v>51.03030303030304</v>
       </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25">
-        <v>4617035000</v>
+      <c r="L25" t="s">
+        <v>109</v>
       </c>
       <c r="M25">
         <v>655011</v>
@@ -3082,7 +5335,7 @@
         <v>39000</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>85.47</v>
       </c>
       <c r="Q25">
         <v>14.53</v>
@@ -3097,81 +5350,171 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>42.74</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>42.74</v>
       </c>
       <c r="X25">
+        <v>14.53</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>57.26</v>
+      </c>
+      <c r="AA25">
+        <v>42.74</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>14.53</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>85.47</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>14.53</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>85.47</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>14.53</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>85.47</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>57.26</v>
+      </c>
+      <c r="BH25">
+        <v>57.26</v>
+      </c>
+      <c r="BI25">
+        <v>57.26</v>
+      </c>
+      <c r="BJ25">
+        <v>33.3</v>
+      </c>
+      <c r="BK25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>386194</v>
+        <v>27573</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
         <v>202106</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2021</v>
       </c>
-      <c r="E26">
-        <v>112069042</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>5019274320</v>
       </c>
-      <c r="G26" t="s">
-        <v>73</v>
-      </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J26">
+        <v>4617035000</v>
+      </c>
+      <c r="K26">
         <v>60.90909090909091</v>
       </c>
-      <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26">
-        <v>4617035000</v>
+      <c r="L26" t="s">
+        <v>109</v>
       </c>
       <c r="M26">
         <v>604084</v>
@@ -3183,96 +5526,186 @@
         <v>39967</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>4.09</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
+        <v>95.91</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>45.87</v>
+      </c>
+      <c r="Z26">
+        <v>54.13</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>4.09</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>50.04</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
         <v>45.87</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>50.04</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
         <v>49.96</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>49.96</v>
+      </c>
+      <c r="BB26">
+        <v>50.04</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>50.04</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>54.13</v>
+      </c>
+      <c r="BH26">
+        <v>54.13</v>
+      </c>
+      <c r="BI26">
+        <v>54.13</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>407511</v>
+        <v>28243</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
         <v>202107</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2021</v>
       </c>
-      <c r="E27">
-        <v>54064241</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>4159039936</v>
       </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J27">
+        <v>4617035000</v>
+      </c>
+      <c r="K27">
         <v>51.03030303030304</v>
       </c>
-      <c r="K27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27">
-        <v>4617035000</v>
+      <c r="L27" t="s">
+        <v>109</v>
       </c>
       <c r="M27">
         <v>351597</v>
@@ -3284,22 +5717,22 @@
         <v>22433</v>
       </c>
       <c r="P27">
+        <v>25.71</v>
+      </c>
+      <c r="Q27">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>23.48</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>2.23</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3311,10 +5744,10 @@
         <v>74.29000000000001</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3323,57 +5756,147 @@
         <v>0</v>
       </c>
       <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>23.48</v>
       </c>
-      <c r="AD27">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>2.23</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>74.29000000000001</v>
       </c>
-      <c r="AG27">
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>23.48</v>
+      </c>
+      <c r="AT27">
+        <v>2.23</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>97.77</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>2.23</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>23.48</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>23.48</v>
+      </c>
+      <c r="BI27">
+        <v>23.48</v>
+      </c>
+      <c r="BJ27">
+        <v>33.3</v>
+      </c>
+      <c r="BK27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>408311</v>
+        <v>29130</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28">
         <v>202107</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="E28">
-        <v>112069042</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>5019274320</v>
       </c>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J28">
+        <v>4617035000</v>
+      </c>
+      <c r="K28">
         <v>60.90909090909091</v>
       </c>
-      <c r="K28" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28">
-        <v>4617035000</v>
+      <c r="L28" t="s">
+        <v>109</v>
       </c>
       <c r="M28">
         <v>146703</v>
@@ -3385,96 +5908,186 @@
         <v>5840</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>53.77</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>46.23</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>21.92</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>31.85</v>
+      </c>
+      <c r="X28">
+        <v>46.23</v>
+      </c>
+      <c r="Y28">
+        <v>25.34</v>
+      </c>
+      <c r="Z28">
+        <v>59.93</v>
+      </c>
+      <c r="AA28">
+        <v>14.73</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>42.81</v>
       </c>
-      <c r="S28">
+      <c r="AI28">
         <v>25.34</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>14.73</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
         <v>17.12</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
         <v>47.26</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>35.62</v>
       </c>
-      <c r="AF28">
+      <c r="AV28">
         <v>17.12</v>
       </c>
-      <c r="AG28">
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>21.92</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>63.36</v>
+      </c>
+      <c r="BB28">
+        <v>14.73</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>21.92</v>
+      </c>
+      <c r="BH28">
+        <v>39.04</v>
+      </c>
+      <c r="BI28">
+        <v>39.04</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>429653</v>
+        <v>29810</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29">
         <v>202108</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2021</v>
       </c>
-      <c r="E29">
-        <v>54064241</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>4159039936</v>
       </c>
-      <c r="G29" t="s">
-        <v>72</v>
-      </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J29">
+        <v>4617035000</v>
+      </c>
+      <c r="K29">
         <v>51.03030303030304</v>
       </c>
-      <c r="K29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29">
-        <v>4617035000</v>
+      <c r="L29" t="s">
+        <v>109</v>
       </c>
       <c r="M29">
         <v>539607</v>
@@ -3486,7 +6099,7 @@
         <v>50000</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3495,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3510,14 +6123,14 @@
         <v>0</v>
       </c>
       <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>100</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
       <c r="AA29">
         <v>0</v>
       </c>
@@ -3528,54 +6141,144 @@
         <v>0</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>100</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
         <v>50</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>50</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>100</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>50</v>
+      </c>
+      <c r="BK29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>430458</v>
+        <v>30704</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30">
         <v>202108</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2021</v>
       </c>
-      <c r="E30">
-        <v>112069042</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>5019274320</v>
       </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J30">
+        <v>4617035000</v>
+      </c>
+      <c r="K30">
         <v>60.90909090909091</v>
       </c>
-      <c r="K30" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30">
-        <v>4617035000</v>
+      <c r="L30" t="s">
+        <v>109</v>
       </c>
       <c r="M30">
         <v>74131</v>
@@ -3587,96 +6290,186 @@
         <v>3700</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>43.24</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>56.76</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>100</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>33.11</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>23.65</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
         <v>43.24</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>23.65</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
         <v>76.34999999999999</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>23.65</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>33.11</v>
+      </c>
+      <c r="BB30">
+        <v>33.11</v>
+      </c>
+      <c r="BC30">
+        <v>10.14</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>23.65</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>33.11</v>
+      </c>
+      <c r="BH30">
+        <v>33.11</v>
+      </c>
+      <c r="BI30">
+        <v>33.11</v>
+      </c>
+      <c r="BJ30">
+        <v>25</v>
+      </c>
+      <c r="BK30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
-        <v>452629</v>
+        <v>32265</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31">
         <v>202109</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>2021</v>
       </c>
-      <c r="E31">
-        <v>112069042</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>5019274320</v>
       </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J31">
+        <v>4617035000</v>
+      </c>
+      <c r="K31">
         <v>60.90909090909091</v>
       </c>
-      <c r="K31" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31">
-        <v>4617035000</v>
+      <c r="L31" t="s">
+        <v>109</v>
       </c>
       <c r="M31">
         <v>617718</v>
@@ -3688,7 +6481,7 @@
         <v>36567</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3697,87 +6490,177 @@
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>22.79</v>
       </c>
-      <c r="T31">
+      <c r="V31">
+        <v>4.47</v>
+      </c>
+      <c r="W31">
         <v>72.73999999999999</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>4.47</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
+        <v>95.53</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>22.79</v>
+      </c>
+      <c r="AJ31">
         <v>72.73999999999999</v>
       </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>4.47</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>22.79</v>
       </c>
-      <c r="AD31">
+      <c r="AT31">
         <v>4.47</v>
       </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>4.47</v>
+      </c>
+      <c r="BB31">
+        <v>22.79</v>
+      </c>
+      <c r="BC31">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="BD31">
+        <v>22.79</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>100</v>
+      </c>
+      <c r="BH31">
+        <v>100</v>
+      </c>
+      <c r="BI31">
+        <v>100</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
-        <v>474090</v>
+        <v>32949</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32">
         <v>202110</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>2021</v>
       </c>
-      <c r="E32">
-        <v>54064241</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>4159039936</v>
       </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J32">
+        <v>4617035000</v>
+      </c>
+      <c r="K32">
         <v>51.03030303030304</v>
       </c>
-      <c r="K32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32">
-        <v>4617035000</v>
+      <c r="L32" t="s">
+        <v>109</v>
       </c>
       <c r="M32">
         <v>449935</v>
@@ -3789,7 +6672,7 @@
         <v>25700</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3798,29 +6681,29 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>98.05</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1.95</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>9.210000000000001</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="Z32">
         <v>90.79000000000001</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
       <c r="AA32">
         <v>0</v>
       </c>
@@ -3828,57 +6711,147 @@
         <v>0</v>
       </c>
       <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
         <v>7.26</v>
       </c>
-      <c r="AD32">
+      <c r="AT32">
         <v>1.95</v>
       </c>
-      <c r="AE32">
+      <c r="AU32">
         <v>90.79000000000001</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="BB32">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>7.26</v>
+      </c>
+      <c r="BH32">
+        <v>7.26</v>
+      </c>
+      <c r="BI32">
+        <v>7.26</v>
+      </c>
+      <c r="BJ32">
+        <v>33.3</v>
+      </c>
+      <c r="BK32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
-        <v>474887</v>
+        <v>33832</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33">
         <v>202110</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>2021</v>
       </c>
-      <c r="E33">
-        <v>112069042</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>5019274320</v>
       </c>
-      <c r="G33" t="s">
-        <v>73</v>
-      </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J33">
+        <v>4617035000</v>
+      </c>
+      <c r="K33">
         <v>60.90909090909091</v>
       </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33">
-        <v>4617035000</v>
+      <c r="L33" t="s">
+        <v>109</v>
       </c>
       <c r="M33">
         <v>468211</v>
@@ -3890,96 +6863,186 @@
         <v>14517</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>94.37</v>
       </c>
       <c r="Q33">
+        <v>5.63</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>5.63</v>
+      </c>
+      <c r="T33">
+        <v>45.92</v>
+      </c>
+      <c r="U33">
+        <v>6.54</v>
+      </c>
+      <c r="V33">
+        <v>5.63</v>
+      </c>
+      <c r="W33">
+        <v>36.28</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>53.39</v>
+      </c>
+      <c r="Z33">
+        <v>46.61</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>10.33</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>38.12</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
         <v>45.92</v>
       </c>
-      <c r="W33">
+      <c r="AM33">
         <v>5.63</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
         <v>36.28</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>1.84</v>
       </c>
-      <c r="AD33">
+      <c r="AT33">
         <v>61.88</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>61.88</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>38.12</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="BH33">
+        <v>89.67</v>
+      </c>
+      <c r="BI33">
+        <v>89.67</v>
+      </c>
+      <c r="BJ33">
+        <v>20</v>
+      </c>
+      <c r="BK33">
+        <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
-        <v>497170</v>
+        <v>35402</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34">
         <v>202111</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>2021</v>
       </c>
-      <c r="E34">
-        <v>112069042</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>5019274320</v>
       </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J34">
+        <v>4617035000</v>
+      </c>
+      <c r="K34">
         <v>60.90909090909091</v>
       </c>
-      <c r="K34" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34">
-        <v>4617035000</v>
+      <c r="L34" t="s">
+        <v>109</v>
       </c>
       <c r="M34">
         <v>382089</v>
@@ -3991,96 +7054,186 @@
         <v>7944</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>89.23</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>10.77</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="T34">
+        <v>53.99</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>6.85</v>
+      </c>
+      <c r="W34">
+        <v>18.6</v>
+      </c>
+      <c r="X34">
+        <v>10.77</v>
+      </c>
+      <c r="Y34">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>11.89</v>
+      </c>
+      <c r="AA34">
+        <v>6.85</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>14.97</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
         <v>18.6</v>
       </c>
-      <c r="W34">
+      <c r="AM34">
         <v>58.74</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
         <v>7.69</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
         <v>6.43</v>
       </c>
-      <c r="AD34">
+      <c r="AT34">
         <v>26.29</v>
       </c>
-      <c r="AE34">
+      <c r="AU34">
         <v>23.08</v>
       </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
         <v>44.2</v>
       </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>44.2</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>33.15</v>
+      </c>
+      <c r="BB34">
+        <v>16.22</v>
+      </c>
+      <c r="BC34">
+        <v>6.43</v>
+      </c>
+      <c r="BD34">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>39.58</v>
+      </c>
+      <c r="BH34">
+        <v>48.11</v>
+      </c>
+      <c r="BI34">
+        <v>48.11</v>
+      </c>
+      <c r="BJ34">
+        <v>33.3</v>
+      </c>
+      <c r="BK34">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
-        <v>518690</v>
+        <v>36093</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35">
         <v>202112</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>2021</v>
       </c>
-      <c r="E35">
-        <v>54064241</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>4159039936</v>
       </c>
-      <c r="G35" t="s">
-        <v>72</v>
-      </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J35">
+        <v>4617035000</v>
+      </c>
+      <c r="K35">
         <v>51.03030303030304</v>
       </c>
-      <c r="K35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35">
-        <v>4617035000</v>
+      <c r="L35" t="s">
+        <v>109</v>
       </c>
       <c r="M35">
         <v>427340</v>
@@ -4092,7 +7245,7 @@
         <v>35750</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4104,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4116,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>97.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>2.1</v>
@@ -4125,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4134,54 +7287,144 @@
         <v>0</v>
       </c>
       <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AO35">
         <v>2.1</v>
       </c>
-      <c r="AE35">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>2.1</v>
+      </c>
+      <c r="AU35">
         <v>97.90000000000001</v>
       </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>2.1</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>2.1</v>
+      </c>
+      <c r="BH35">
+        <v>2.1</v>
+      </c>
+      <c r="BI35">
+        <v>2.1</v>
+      </c>
+      <c r="BJ35">
+        <v>50</v>
+      </c>
+      <c r="BK35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
-        <v>519492</v>
+        <v>36983</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36">
         <v>202112</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>2021</v>
       </c>
-      <c r="E36">
-        <v>112069042</v>
-      </c>
-      <c r="F36">
+      <c r="G36">
         <v>5019274320</v>
       </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J36">
+        <v>4617035000</v>
+      </c>
+      <c r="K36">
         <v>60.90909090909091</v>
       </c>
-      <c r="K36" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36">
-        <v>4617035000</v>
+      <c r="L36" t="s">
+        <v>109</v>
       </c>
       <c r="M36">
         <v>567513</v>
@@ -4193,7 +7436,7 @@
         <v>12178</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -4202,87 +7445,177 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="T36">
+        <v>72.17</v>
+      </c>
+      <c r="U36">
+        <v>16.88</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>68.98</v>
+      </c>
+      <c r="Z36">
+        <v>25.09</v>
+      </c>
+      <c r="AA36">
+        <v>5.93</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1.37</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
         <v>75.36</v>
       </c>
-      <c r="X36">
+      <c r="AN36">
         <v>4.56</v>
       </c>
-      <c r="Y36">
+      <c r="AO36">
         <v>18.7</v>
       </c>
-      <c r="Z36">
+      <c r="AP36">
         <v>1.37</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
         <v>3.19</v>
       </c>
-      <c r="AD36">
+      <c r="AT36">
         <v>14.69</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
         <v>80.75</v>
       </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>14.69</v>
+      </c>
+      <c r="BB36">
+        <v>15.51</v>
+      </c>
+      <c r="BC36">
+        <v>4.56</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>34.76</v>
+      </c>
+      <c r="BH36">
+        <v>34.76</v>
+      </c>
+      <c r="BI36">
+        <v>34.76</v>
+      </c>
+      <c r="BJ36">
+        <v>33.3</v>
+      </c>
+      <c r="BK36">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:63">
       <c r="A37" s="1">
-        <v>541783</v>
+        <v>38536</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37">
         <v>202201</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>2022</v>
       </c>
-      <c r="E37">
-        <v>112069042</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
         <v>5019274320</v>
       </c>
-      <c r="G37" t="s">
-        <v>73</v>
-      </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J37">
+        <v>4617035000</v>
+      </c>
+      <c r="K37">
         <v>60.90909090909091</v>
       </c>
-      <c r="K37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L37">
-        <v>4617035000</v>
+      <c r="L37" t="s">
+        <v>109</v>
       </c>
       <c r="M37">
         <v>647593</v>
@@ -4294,7 +7627,7 @@
         <v>13289</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="Q37">
         <v>3.68</v>
@@ -4303,87 +7636,177 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <v>11.96</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>75.42</v>
+      </c>
+      <c r="X37">
+        <v>3.68</v>
+      </c>
+      <c r="Y37">
+        <v>38.29</v>
+      </c>
+      <c r="Z37">
+        <v>55.02</v>
+      </c>
+      <c r="AA37">
+        <v>6.69</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>3.68</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
         <v>4.18</v>
       </c>
-      <c r="T37">
+      <c r="AJ37">
         <v>35.62</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
         <v>43.06</v>
       </c>
-      <c r="X37">
+      <c r="AN37">
         <v>5.94</v>
       </c>
-      <c r="Y37">
+      <c r="AO37">
         <v>7.53</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
         <v>3.01</v>
       </c>
-      <c r="AD37">
+      <c r="AT37">
         <v>49.41</v>
       </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
         <v>47.58</v>
       </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>43.06</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="BB37">
+        <v>44.31</v>
+      </c>
+      <c r="BC37">
+        <v>3.01</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>17.64</v>
+      </c>
+      <c r="BH37">
+        <v>17.64</v>
+      </c>
+      <c r="BI37">
+        <v>17.64</v>
+      </c>
+      <c r="BJ37">
+        <v>42.9</v>
+      </c>
+      <c r="BK37">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:63">
       <c r="A38" s="1">
-        <v>564075</v>
+        <v>40087</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38">
         <v>202202</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>2022</v>
       </c>
-      <c r="E38">
-        <v>112069042</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
         <v>5019274320</v>
       </c>
-      <c r="G38" t="s">
-        <v>73</v>
-      </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J38">
+        <v>4617035000</v>
+      </c>
+      <c r="K38">
         <v>60.90909090909091</v>
       </c>
-      <c r="K38" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38">
-        <v>4617035000</v>
+      <c r="L38" t="s">
+        <v>109</v>
       </c>
       <c r="M38">
         <v>1604549</v>
@@ -4395,96 +7818,186 @@
         <v>34544</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
+        <v>40.24</v>
+      </c>
+      <c r="T38">
+        <v>24.64</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>30.91</v>
+      </c>
+      <c r="X38">
+        <v>4.21</v>
+      </c>
+      <c r="Y38">
+        <v>14.25</v>
+      </c>
+      <c r="Z38">
+        <v>53.59</v>
+      </c>
+      <c r="AA38">
+        <v>32.16</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
         <v>45.09</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
         <v>16.56</v>
       </c>
-      <c r="X38">
+      <c r="AN38">
         <v>4.18</v>
       </c>
-      <c r="Y38">
+      <c r="AO38">
         <v>34.16</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
         <v>36.35</v>
       </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
         <v>45.09</v>
       </c>
-      <c r="AG38">
+      <c r="AW38">
         <v>18.56</v>
       </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>16.56</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>4.18</v>
+      </c>
+      <c r="BB38">
+        <v>79.25</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>38.34</v>
+      </c>
+      <c r="BH38">
+        <v>38.34</v>
+      </c>
+      <c r="BI38">
+        <v>38.34</v>
+      </c>
+      <c r="BJ38">
+        <v>60</v>
+      </c>
+      <c r="BK38">
+        <v>40</v>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:63">
       <c r="A39" s="1">
-        <v>586428</v>
+        <v>41633</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39">
         <v>202203</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>2022</v>
       </c>
-      <c r="E39">
-        <v>112069042</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
         <v>5019274320</v>
       </c>
-      <c r="G39" t="s">
-        <v>73</v>
-      </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J39">
+        <v>4617035000</v>
+      </c>
+      <c r="K39">
         <v>60.90909090909091</v>
       </c>
-      <c r="K39" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39">
-        <v>4617035000</v>
+      <c r="L39" t="s">
+        <v>109</v>
       </c>
       <c r="M39">
         <v>316587</v>
@@ -4496,96 +8009,186 @@
         <v>14275</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>11.56</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="W39">
+        <v>79.33</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>8.76</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>77.65000000000001</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
         <v>12.72</v>
       </c>
-      <c r="Y39">
+      <c r="AO39">
         <v>9.630000000000001</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
         <v>9.630000000000001</v>
       </c>
-      <c r="AD39">
+      <c r="AT39">
         <v>90.37</v>
       </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>90.37</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>22.35</v>
+      </c>
+      <c r="BH39">
+        <v>100</v>
+      </c>
+      <c r="BI39">
+        <v>100</v>
+      </c>
+      <c r="BJ39">
+        <v>25</v>
+      </c>
+      <c r="BK39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:63">
       <c r="A40" s="1">
-        <v>608835</v>
+        <v>43196</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40">
         <v>202204</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>2022</v>
       </c>
-      <c r="E40">
-        <v>112069042</v>
-      </c>
-      <c r="F40">
+      <c r="G40">
         <v>5019274320</v>
       </c>
-      <c r="G40" t="s">
-        <v>73</v>
-      </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J40">
+        <v>4617035000</v>
+      </c>
+      <c r="K40">
         <v>60.90909090909091</v>
       </c>
-      <c r="K40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L40">
-        <v>4617035000</v>
+      <c r="L40" t="s">
+        <v>109</v>
       </c>
       <c r="M40">
         <v>726172</v>
@@ -4597,96 +8200,186 @@
         <v>17625</v>
       </c>
       <c r="P40">
+        <v>76.81</v>
+      </c>
+      <c r="Q40">
+        <v>23.19</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>3.55</v>
+      </c>
+      <c r="T40">
+        <v>29.65</v>
+      </c>
+      <c r="U40">
+        <v>22.34</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>21.28</v>
+      </c>
+      <c r="X40">
+        <v>23.19</v>
+      </c>
+      <c r="Y40">
+        <v>45.53</v>
+      </c>
+      <c r="Z40">
+        <v>21.28</v>
+      </c>
+      <c r="AA40">
+        <v>33.19</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>4.47</v>
       </c>
-      <c r="Q40">
+      <c r="AG40">
         <v>12.2</v>
       </c>
-      <c r="R40">
+      <c r="AH40">
         <v>6.52</v>
       </c>
-      <c r="S40">
+      <c r="AI40">
         <v>46.1</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
         <v>1.06</v>
       </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
         <v>29.65</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
         <v>4.47</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
         <v>12.2</v>
       </c>
-      <c r="AD40">
+      <c r="AT40">
         <v>34.26</v>
       </c>
-      <c r="AE40">
+      <c r="AU40">
         <v>6.52</v>
       </c>
-      <c r="AF40">
+      <c r="AV40">
         <v>42.55</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>59.22</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>7.59</v>
+      </c>
+      <c r="BB40">
+        <v>3.55</v>
+      </c>
+      <c r="BC40">
+        <v>29.65</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>4.47</v>
+      </c>
+      <c r="BF40">
+        <v>12.2</v>
+      </c>
+      <c r="BG40">
+        <v>1.06</v>
+      </c>
+      <c r="BH40">
+        <v>13.26</v>
+      </c>
+      <c r="BI40">
+        <v>13.26</v>
+      </c>
+      <c r="BJ40">
+        <v>14.3</v>
+      </c>
+      <c r="BK40">
+        <v>14.3</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:63">
       <c r="A41" s="1">
-        <v>631208</v>
+        <v>44765</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41">
         <v>202205</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>2022</v>
       </c>
-      <c r="E41">
-        <v>112069042</v>
-      </c>
-      <c r="F41">
+      <c r="G41">
         <v>5019274320</v>
       </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J41">
+        <v>4617035000</v>
+      </c>
+      <c r="K41">
         <v>60.90909090909091</v>
       </c>
-      <c r="K41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41">
-        <v>4617035000</v>
+      <c r="L41" t="s">
+        <v>109</v>
       </c>
       <c r="M41">
         <v>225205</v>
@@ -4698,57 +8391,147 @@
         <v>10900</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>3.44</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="W41">
+        <v>5.96</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>96.33</v>
+      </c>
+      <c r="Z41">
+        <v>3.67</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
         <v>86.93000000000001</v>
       </c>
-      <c r="R41">
+      <c r="AH41">
         <v>9.630000000000001</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
         <v>3.44</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
         <v>90.37</v>
       </c>
-      <c r="AD41">
+      <c r="AT41">
         <v>3.67</v>
       </c>
-      <c r="AE41">
+      <c r="AU41">
         <v>5.96</v>
       </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>86.93000000000001</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>3.67</v>
+      </c>
+      <c r="BA41">
+        <v>5.96</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>3.44</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>86.93000000000001</v>
+      </c>
+      <c r="BG41">
+        <v>3.44</v>
+      </c>
+      <c r="BH41">
+        <v>90.37</v>
+      </c>
+      <c r="BI41">
+        <v>90.37</v>
+      </c>
+      <c r="BJ41">
+        <v>75</v>
+      </c>
+      <c r="BK41">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4617035000.xlsx
+++ b/시장분석용_정보/시장분석용_4617035000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="39">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -536,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,64 +588,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -705,10 +609,10 @@
         <v>4159039936</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4617035000</v>
@@ -717,7 +621,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>363415</v>
@@ -729,25 +633,25 @@
         <v>23533</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>5.67</v>
-      </c>
-      <c r="P2">
-        <v>94.33</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>5.67</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
       </c>
       <c r="V2">
         <v>9.35</v>
@@ -756,90 +660,42 @@
         <v>84.98999999999999</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>94.33</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>5.67</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>5.67</v>
-      </c>
-      <c r="AL2">
-        <v>9.35</v>
-      </c>
-      <c r="AM2">
-        <v>84.98999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>94.33</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>5.67</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1332</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -851,10 +707,10 @@
         <v>5019274320</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4617035000</v>
@@ -863,7 +719,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>675354</v>
@@ -875,7 +731,7 @@
         <v>26240</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -884,31 +740,31 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>24.09</v>
+        <v>3.05</v>
       </c>
       <c r="S3">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>29.95</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>41.77</v>
       </c>
       <c r="V3">
-        <v>42.91</v>
+        <v>1.14</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>41.77</v>
+        <v>54.04</v>
       </c>
       <c r="Y3">
-        <v>55.18</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -917,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>98.86</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -928,64 +784,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>3.05</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>41.77</v>
-      </c>
-      <c r="AL3">
-        <v>1.14</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>54.04</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>98.86</v>
-      </c>
-      <c r="AT3">
-        <v>1.14</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2859</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -997,10 +805,10 @@
         <v>5019274320</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>4617035000</v>
@@ -1009,7 +817,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>1709407</v>
@@ -1021,52 +829,52 @@
         <v>37256</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R4">
-        <v>65.55</v>
+        <v>29.76</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>45.54</v>
       </c>
       <c r="T4">
-        <v>24.69</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>9.75</v>
+        <v>19.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="Y4">
-        <v>20.94</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>77.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>66.45</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1074,64 +882,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>1.88</v>
-      </c>
-      <c r="AH4">
-        <v>29.76</v>
-      </c>
-      <c r="AI4">
-        <v>45.54</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>19.5</v>
-      </c>
-      <c r="AL4">
-        <v>1.88</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1.43</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>11.18</v>
-      </c>
-      <c r="AS4">
-        <v>66.45</v>
-      </c>
-      <c r="AT4">
-        <v>22.37</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>4389</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202003</v>
@@ -1143,10 +903,10 @@
         <v>5019274320</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4617035000</v>
@@ -1155,7 +915,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>438792</v>
@@ -1167,7 +927,7 @@
         <v>14767</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1176,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3.84</v>
+        <v>39.28</v>
       </c>
       <c r="S5">
-        <v>53.05</v>
+        <v>52.37</v>
       </c>
       <c r="T5">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>39.28</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1194,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="Y5">
-        <v>96.16</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>47.63</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1215,69 +975,21 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>52.37</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>39.28</v>
-      </c>
-      <c r="AI5">
-        <v>52.37</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>8.35</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>47.63</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>52.37</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5908</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202004</v>
@@ -1289,10 +1001,10 @@
         <v>5019274320</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>4617035000</v>
@@ -1301,7 +1013,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>910030</v>
@@ -1313,117 +1025,69 @@
         <v>29467</v>
       </c>
       <c r="O6">
-        <v>72.45</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>27.55</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>23.53</v>
+        <v>71.72</v>
       </c>
       <c r="S6">
-        <v>4.75</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>44.17</v>
+        <v>19.68</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>27.55</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>21.61</v>
+        <v>6.67</v>
       </c>
       <c r="Y6">
-        <v>76.47</v>
+        <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>34.22</v>
+      </c>
+      <c r="AC6">
+        <v>63.86</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>1.92</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>71.72</v>
-      </c>
-      <c r="AI6">
-        <v>1.92</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>19.68</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>6.67</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>34.22</v>
-      </c>
-      <c r="AS6">
-        <v>63.86</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>1.92</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>7456</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202005</v>
@@ -1435,10 +1099,10 @@
         <v>5019274320</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4617035000</v>
@@ -1447,7 +1111,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <v>1109652</v>
@@ -1459,117 +1123,69 @@
         <v>26400</v>
       </c>
       <c r="O7">
-        <v>67.8</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>32.2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>33.14</v>
       </c>
       <c r="R7">
-        <v>62.26</v>
+        <v>14.96</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>14.11</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>32.24</v>
+      </c>
+      <c r="X7">
+        <v>5.54</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>29.07</v>
+      </c>
+      <c r="AC7">
+        <v>6.11</v>
+      </c>
+      <c r="AD7">
+        <v>33.85</v>
+      </c>
+      <c r="AE7">
         <v>2.56</v>
       </c>
-      <c r="V7">
-        <v>2.98</v>
-      </c>
-      <c r="W7">
-        <v>32.2</v>
-      </c>
-      <c r="X7">
-        <v>54.21</v>
-      </c>
-      <c r="Y7">
-        <v>45.79</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>33.14</v>
-      </c>
-      <c r="AH7">
-        <v>14.96</v>
-      </c>
-      <c r="AI7">
-        <v>14.11</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>32.24</v>
-      </c>
-      <c r="AN7">
-        <v>5.54</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>29.07</v>
-      </c>
-      <c r="AS7">
-        <v>6.11</v>
-      </c>
-      <c r="AT7">
-        <v>33.85</v>
-      </c>
-      <c r="AU7">
-        <v>2.56</v>
-      </c>
-      <c r="AV7">
         <v>28.41</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>8086</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202006</v>
@@ -1581,10 +1197,10 @@
         <v>4159039936</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>4617035000</v>
@@ -1593,7 +1209,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>79279</v>
@@ -1605,16 +1221,16 @@
         <v>5167</v>
       </c>
       <c r="O8">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>90.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>9.68</v>
+        <v>57.42</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1629,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>90.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>42.58</v>
       </c>
       <c r="Y8">
-        <v>57.42</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1647,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1658,64 +1274,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>57.42</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>42.58</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>100</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>8994</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202006</v>
@@ -1727,10 +1295,10 @@
         <v>5019274320</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4617035000</v>
@@ -1739,7 +1307,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <v>412416</v>
@@ -1751,7 +1319,7 @@
         <v>11414</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1760,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4.26</v>
+        <v>2.38</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>70.59</v>
       </c>
       <c r="T9">
-        <v>46.93</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>31.04</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>17.77</v>
@@ -1778,90 +1346,42 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>9.390000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="Y9">
-        <v>82.23</v>
+        <v>0</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>40.3</v>
+      </c>
+      <c r="AC9">
+        <v>39.55</v>
+      </c>
+      <c r="AD9">
+        <v>11.76</v>
+      </c>
+      <c r="AE9">
         <v>8.390000000000001</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>2.38</v>
-      </c>
-      <c r="AI9">
-        <v>70.59</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>17.77</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>9.26</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>40.3</v>
-      </c>
-      <c r="AS9">
-        <v>39.55</v>
-      </c>
-      <c r="AT9">
-        <v>11.76</v>
-      </c>
-      <c r="AU9">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>10541</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202007</v>
@@ -1873,10 +1393,10 @@
         <v>5019274320</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>4617035000</v>
@@ -1885,7 +1405,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>346907</v>
@@ -1897,13 +1417,13 @@
         <v>16950</v>
       </c>
       <c r="O10">
-        <v>53.39</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>46.61</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="R10">
         <v>37.46</v>
@@ -1912,102 +1432,54 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>7.96</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>46.61</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>46.61</v>
+      </c>
+      <c r="AC10">
+        <v>45.43</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>7.96</v>
       </c>
-      <c r="W10">
-        <v>46.61</v>
-      </c>
-      <c r="X10">
-        <v>62.54</v>
-      </c>
-      <c r="Y10">
-        <v>37.46</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>7.96</v>
-      </c>
-      <c r="AH10">
-        <v>37.46</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>7.96</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>46.61</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>46.61</v>
-      </c>
-      <c r="AS10">
-        <v>45.43</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>7.96</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>11183</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202008</v>
@@ -2019,10 +1491,10 @@
         <v>4159039936</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>4617035000</v>
@@ -2031,7 +1503,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>15769</v>
@@ -2043,50 +1515,50 @@
         <v>1550</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>100</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>48.39</v>
-      </c>
-      <c r="S11">
-        <v>51.61</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <v>100</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
@@ -2096,64 +1568,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>100</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>100</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>12089</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202008</v>
@@ -2165,10 +1589,10 @@
         <v>5019274320</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>4617035000</v>
@@ -2177,7 +1601,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>570791</v>
@@ -2189,117 +1613,69 @@
         <v>21360</v>
       </c>
       <c r="O12">
-        <v>37.08</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>62.92</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>57.87</v>
       </c>
       <c r="S12">
-        <v>32.58</v>
+        <v>42.13</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>4.49</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>62.92</v>
-      </c>
-      <c r="X12">
-        <v>89.89</v>
-      </c>
-      <c r="Y12">
-        <v>10.11</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>57.87</v>
-      </c>
-      <c r="AI12">
-        <v>42.13</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>4.49</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
         <v>9.550000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>12736</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202009</v>
@@ -2311,10 +1687,10 @@
         <v>4159039936</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>4617035000</v>
@@ -2323,7 +1699,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>28108</v>
@@ -2335,7 +1711,7 @@
         <v>2750</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2344,40 +1720,40 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>72.73</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>27.27</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>72.73</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>100</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2388,64 +1764,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>72.73</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>27.27</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>72.73</v>
-      </c>
-      <c r="AS13">
-        <v>27.27</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>13639</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202009</v>
@@ -2457,10 +1785,10 @@
         <v>5019274320</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4617035000</v>
@@ -2469,7 +1797,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>208058</v>
@@ -2481,117 +1809,69 @@
         <v>5814</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>16.22</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>11.79</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>71.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0.25</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="X14">
-        <v>58.97</v>
+        <v>66.34</v>
       </c>
       <c r="Y14">
-        <v>29.24</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>11.79</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>82.56</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>17.2</v>
-      </c>
-      <c r="AG14">
-        <v>4.42</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
         <v>0.25</v>
       </c>
-      <c r="AM14">
-        <v>11.79</v>
-      </c>
-      <c r="AN14">
-        <v>66.34</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>82.56</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>17.2</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>15186</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202010</v>
@@ -2603,10 +1883,10 @@
         <v>5019274320</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4617035000</v>
@@ -2615,7 +1895,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>1380663</v>
@@ -2627,117 +1907,69 @@
         <v>42783</v>
       </c>
       <c r="O15">
-        <v>97.08</v>
+        <v>13.63</v>
       </c>
       <c r="P15">
-        <v>2.92</v>
+        <v>27.27</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>27.27</v>
       </c>
-      <c r="U15">
+      <c r="W15">
+        <v>30.19</v>
+      </c>
+      <c r="X15">
+        <v>1.64</v>
+      </c>
+      <c r="Y15">
         <v>27.27</v>
       </c>
-      <c r="V15">
-        <v>28.91</v>
-      </c>
-      <c r="W15">
-        <v>2.92</v>
-      </c>
-      <c r="X15">
-        <v>4.56</v>
-      </c>
-      <c r="Y15">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>31.83</v>
+      </c>
+      <c r="AD15">
         <v>40.9</v>
       </c>
-      <c r="Z15">
-        <v>54.54</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>27.27</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>27.27</v>
-      </c>
-      <c r="AM15">
-        <v>30.19</v>
-      </c>
-      <c r="AN15">
-        <v>1.64</v>
-      </c>
-      <c r="AO15">
-        <v>27.27</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>31.83</v>
-      </c>
-      <c r="AT15">
-        <v>40.9</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>15831</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202011</v>
@@ -2749,10 +1981,10 @@
         <v>4159039936</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4617035000</v>
@@ -2761,7 +1993,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>54984</v>
@@ -2773,37 +2005,37 @@
         <v>2700</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>100</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>72.22</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>27.78</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>13.89</v>
-      </c>
       <c r="Y16">
-        <v>86.11</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2815,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2826,64 +2058,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>100</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>100</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>16733</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202011</v>
@@ -2895,10 +2079,10 @@
         <v>5019274320</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4617035000</v>
@@ -2907,7 +2091,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>770800</v>
@@ -2919,7 +2103,7 @@
         <v>30280</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2928,108 +2112,60 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>39.37</v>
+        <v>15.85</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>2.64</v>
+      </c>
+      <c r="W17">
+        <v>60.63</v>
+      </c>
+      <c r="X17">
+        <v>20.87</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>23.51</v>
+      </c>
+      <c r="AC17">
+        <v>15.85</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>49.41</v>
       </c>
-      <c r="U17">
+      <c r="AF17">
         <v>11.23</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>13.87</v>
-      </c>
-      <c r="Y17">
-        <v>86.13</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>15.85</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>2.64</v>
-      </c>
-      <c r="AM17">
-        <v>60.63</v>
-      </c>
-      <c r="AN17">
-        <v>20.87</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>23.51</v>
-      </c>
-      <c r="AS17">
-        <v>15.85</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>49.41</v>
-      </c>
-      <c r="AV17">
-        <v>11.23</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>17376</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202012</v>
@@ -3041,10 +2177,10 @@
         <v>4159039936</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4617035000</v>
@@ -3053,7 +2189,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>15260</v>
@@ -3065,50 +2201,50 @@
         <v>1500</v>
       </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>100</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>50</v>
-      </c>
-      <c r="U18">
-        <v>50</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>100</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
         <v>0</v>
       </c>
@@ -3118,64 +2254,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>100</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>100</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>18278</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202012</v>
@@ -3187,10 +2275,10 @@
         <v>5019274320</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4617035000</v>
@@ -3199,7 +2287,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>402822</v>
@@ -3211,10 +2299,10 @@
         <v>13067</v>
       </c>
       <c r="O19">
-        <v>92.73</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>7.27</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3223,25 +2311,25 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T19">
-        <v>9.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="V19">
-        <v>82.78</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>7.27</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>13.52</v>
+        <v>90.05</v>
       </c>
       <c r="Y19">
-        <v>86.48</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3250,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3264,64 +2352,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>1.91</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>90.05</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>91.95999999999999</v>
-      </c>
-      <c r="AS19">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>19812</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202101</v>
@@ -3333,10 +2373,10 @@
         <v>5019274320</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>4617035000</v>
@@ -3345,7 +2385,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>115210</v>
@@ -3357,7 +2397,7 @@
         <v>5675</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3366,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>61.23</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>22.03</v>
+        <v>48.46</v>
       </c>
       <c r="U20">
-        <v>16.74</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>51.54</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3387,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>83.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>16.74</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>48.46</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>51.54</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3410,64 +2450,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>48.46</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>51.54</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>48.46</v>
-      </c>
-      <c r="AS20">
-        <v>51.54</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>22884</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202103</v>
@@ -3479,10 +2471,10 @@
         <v>5019274320</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4617035000</v>
@@ -3491,7 +2483,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>92792</v>
@@ -3503,7 +2495,7 @@
         <v>3500</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3512,108 +2504,60 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>26.29</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>32.57</v>
       </c>
       <c r="T21">
-        <v>32.57</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="U21">
-        <v>9.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>31.43</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>33.14</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>57.71</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>33.14</v>
-      </c>
-      <c r="Z21">
-        <v>66.86</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>26.29</v>
-      </c>
-      <c r="AI21">
-        <v>32.57</v>
-      </c>
-      <c r="AJ21">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>31.43</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>33.14</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>57.71</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
         <v>9.140000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>24437</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202104</v>
@@ -3625,10 +2569,10 @@
         <v>5019274320</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>4617035000</v>
@@ -3637,7 +2581,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>15259</v>
@@ -3649,13 +2593,13 @@
         <v>1500</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3667,32 +2611,32 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>50</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>100</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
       <c r="AD22">
         <v>0</v>
       </c>
@@ -3700,66 +2644,18 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
         <v>50</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>50</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>50</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>50</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>25104</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202105</v>
@@ -3771,10 +2667,10 @@
         <v>4159039936</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>4617035000</v>
@@ -3783,7 +2679,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>288618</v>
@@ -3798,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3819,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>100</v>
+        <v>87.72</v>
       </c>
       <c r="X23">
-        <v>100</v>
+        <v>12.28</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3840,72 +2736,24 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>12.28</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>87.72</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>87.72</v>
-      </c>
-      <c r="AN23">
-        <v>12.28</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>12.28</v>
-      </c>
-      <c r="AU23">
-        <v>87.72</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>26004</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202105</v>
@@ -3917,10 +2765,10 @@
         <v>5019274320</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>4617035000</v>
@@ -3929,7 +2777,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>103801</v>
@@ -3941,10 +2789,10 @@
         <v>6833</v>
       </c>
       <c r="O24">
-        <v>31.22</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>68.78</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3965,93 +2813,45 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>68.78</v>
+        <v>28.29</v>
       </c>
       <c r="X24">
         <v>40.49</v>
       </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>40.49</v>
+      </c>
+      <c r="AC24">
         <v>28.29</v>
       </c>
-      <c r="Z24">
+      <c r="AD24">
         <v>31.22</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>31.22</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>28.29</v>
-      </c>
-      <c r="AN24">
-        <v>40.49</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>40.49</v>
-      </c>
-      <c r="AS24">
-        <v>28.29</v>
-      </c>
-      <c r="AT24">
-        <v>31.22</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>26674</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202106</v>
@@ -4063,10 +2863,10 @@
         <v>4159039936</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>4617035000</v>
@@ -4075,7 +2875,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>655011</v>
@@ -4087,7 +2887,7 @@
         <v>39000</v>
       </c>
       <c r="O25">
-        <v>85.47</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>14.53</v>
@@ -4102,102 +2902,54 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>42.74</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>42.74</v>
+        <v>0</v>
       </c>
       <c r="W25">
+        <v>85.47</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>14.53</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>57.26</v>
-      </c>
-      <c r="Z25">
-        <v>42.74</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>85.47</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>14.53</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>85.47</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>14.53</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>85.47</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>27573</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202106</v>
@@ -4209,10 +2961,10 @@
         <v>5019274320</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>4617035000</v>
@@ -4221,7 +2973,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>604084</v>
@@ -4233,19 +2985,19 @@
         <v>39967</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="R26">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>95.91</v>
+        <v>50.04</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -4257,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>45.87</v>
       </c>
       <c r="X26">
-        <v>45.87</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>54.13</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4272,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>50.04</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>49.96</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4286,64 +3038,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>4.09</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>50.04</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>45.87</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>50.04</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>49.96</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>28243</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202107</v>
@@ -4355,10 +3059,10 @@
         <v>4159039936</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I27">
         <v>4617035000</v>
@@ -4367,7 +3071,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>351597</v>
@@ -4379,22 +3083,22 @@
         <v>22433</v>
       </c>
       <c r="O27">
-        <v>25.71</v>
+        <v>23.48</v>
       </c>
       <c r="P27">
-        <v>74.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>23.48</v>
+        <v>2.23</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -4406,90 +3110,42 @@
         <v>74.29000000000001</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>23.48</v>
+      </c>
+      <c r="AC27">
+        <v>2.23</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>74.29000000000001</v>
       </c>
-      <c r="Y27">
-        <v>25.71</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>23.48</v>
-      </c>
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>2.23</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>23.48</v>
-      </c>
-      <c r="AS27">
-        <v>2.23</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>29130</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202107</v>
@@ -4501,10 +3157,10 @@
         <v>5019274320</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>4617035000</v>
@@ -4513,7 +3169,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>146703</v>
@@ -4525,19 +3181,19 @@
         <v>5840</v>
       </c>
       <c r="O28">
-        <v>53.77</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>46.23</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="R28">
-        <v>21.92</v>
+        <v>25.34</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>14.73</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -4546,19 +3202,19 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>31.85</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>46.23</v>
+        <v>17.12</v>
       </c>
       <c r="X28">
-        <v>25.34</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>59.93</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -4567,75 +3223,27 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>47.26</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>35.62</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>17.12</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>42.81</v>
-      </c>
-      <c r="AH28">
-        <v>25.34</v>
-      </c>
-      <c r="AI28">
-        <v>14.73</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>17.12</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>47.26</v>
-      </c>
-      <c r="AT28">
-        <v>35.62</v>
-      </c>
-      <c r="AU28">
-        <v>17.12</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>29810</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202108</v>
@@ -4647,10 +3255,10 @@
         <v>4159039936</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I29">
         <v>4617035000</v>
@@ -4659,7 +3267,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>539607</v>
@@ -4671,117 +3279,69 @@
         <v>50000</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>100</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <v>50</v>
       </c>
-      <c r="S29">
+      <c r="AD29">
         <v>50</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>100</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>100</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>50</v>
-      </c>
-      <c r="AT29">
-        <v>50</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>30704</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202108</v>
@@ -4793,10 +3353,10 @@
         <v>5019274320</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>4617035000</v>
@@ -4805,7 +3365,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>74131</v>
@@ -4817,37 +3377,37 @@
         <v>3700</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>33.11</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>23.65</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>43.24</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>56.76</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
       <c r="Y30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4856,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>23.65</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4870,64 +3430,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>33.11</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>23.65</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>43.24</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>23.65</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>76.34999999999999</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>32265</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202109</v>
@@ -4939,10 +3451,10 @@
         <v>5019274320</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4617035000</v>
@@ -4951,7 +3463,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>617718</v>
@@ -4963,7 +3475,7 @@
         <v>36567</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4972,41 +3484,41 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>22.79</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>4.47</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
         <v>22.79</v>
       </c>
-      <c r="U31">
+      <c r="AC31">
         <v>4.47</v>
       </c>
-      <c r="V31">
-        <v>72.73999999999999</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>4.47</v>
-      </c>
-      <c r="Y31">
-        <v>95.53</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
       <c r="AD31">
         <v>0</v>
       </c>
@@ -5016,64 +3528,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>22.79</v>
-      </c>
-      <c r="AI31">
-        <v>72.73999999999999</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>4.47</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>72.73999999999999</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>22.79</v>
-      </c>
-      <c r="AS31">
-        <v>4.47</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>32949</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202110</v>
@@ -5085,10 +3549,10 @@
         <v>4159039936</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4617035000</v>
@@ -5097,7 +3561,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>449935</v>
@@ -5109,7 +3573,7 @@
         <v>25700</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -5118,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="S32">
-        <v>98.05</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -5130,96 +3594,48 @@
         <v>0</v>
       </c>
       <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>7.26</v>
+      </c>
+      <c r="AC32">
         <v>1.95</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="Y32">
+      <c r="AD32">
         <v>90.79000000000001</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>90.79000000000001</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>7.26</v>
-      </c>
-      <c r="AS32">
-        <v>1.95</v>
-      </c>
-      <c r="AT32">
-        <v>90.79000000000001</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>33832</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202110</v>
@@ -5231,10 +3647,10 @@
         <v>5019274320</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4617035000</v>
@@ -5243,7 +3659,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L33">
         <v>468211</v>
@@ -5255,38 +3671,38 @@
         <v>14517</v>
       </c>
       <c r="O33">
-        <v>94.37</v>
+        <v>0</v>
       </c>
       <c r="P33">
+        <v>10.33</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>38.12</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>45.92</v>
+      </c>
+      <c r="V33">
         <v>5.63</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>5.63</v>
-      </c>
-      <c r="S33">
-        <v>45.92</v>
-      </c>
-      <c r="T33">
-        <v>6.54</v>
-      </c>
-      <c r="U33">
-        <v>5.63</v>
-      </c>
-      <c r="V33">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>36.28</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>53.39</v>
-      </c>
-      <c r="Y33">
-        <v>46.61</v>
-      </c>
       <c r="Z33">
         <v>0</v>
       </c>
@@ -5294,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>61.88</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5306,66 +3722,18 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>10.33</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>38.12</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>45.92</v>
-      </c>
-      <c r="AL33">
-        <v>5.63</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>36.28</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>1.84</v>
-      </c>
-      <c r="AS33">
-        <v>61.88</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>35402</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202111</v>
@@ -5377,10 +3745,10 @@
         <v>5019274320</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>4617035000</v>
@@ -5389,7 +3757,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>382089</v>
@@ -5401,117 +3769,69 @@
         <v>7944</v>
       </c>
       <c r="O34">
-        <v>89.23</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>9.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>53.99</v>
+        <v>14.97</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>6.85</v>
+        <v>18.6</v>
       </c>
       <c r="V34">
-        <v>18.6</v>
+        <v>58.74</v>
       </c>
       <c r="W34">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>81.26000000000001</v>
+        <v>7.69</v>
       </c>
       <c r="Y34">
-        <v>11.89</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>6.85</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>26.29</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>14.97</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>18.6</v>
-      </c>
-      <c r="AL34">
-        <v>58.74</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>7.69</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>6.43</v>
-      </c>
-      <c r="AS34">
-        <v>26.29</v>
-      </c>
-      <c r="AT34">
-        <v>23.08</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
         <v>44.2</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>36093</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202112</v>
@@ -5523,10 +3843,10 @@
         <v>4159039936</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>4617035000</v>
@@ -5535,7 +3855,7 @@
         <v>51.03030303030304</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>427340</v>
@@ -5547,7 +3867,7 @@
         <v>35750</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -5559,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>97.90000000000001</v>
-      </c>
-      <c r="T35">
-        <v>2.1</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
       </c>
       <c r="X35">
         <v>2.1</v>
@@ -5580,84 +3900,36 @@
         <v>0</v>
       </c>
       <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>2.1</v>
+      </c>
+      <c r="AD35">
         <v>97.90000000000001</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="AN35">
-        <v>2.1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>2.1</v>
-      </c>
-      <c r="AT35">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>36983</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202112</v>
@@ -5669,10 +3941,10 @@
         <v>5019274320</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>4617035000</v>
@@ -5681,7 +3953,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>567513</v>
@@ -5693,7 +3965,7 @@
         <v>12178</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -5702,40 +3974,40 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>72.17</v>
+        <v>1.37</v>
       </c>
       <c r="T36">
-        <v>16.88</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>75.36</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="X36">
-        <v>68.98</v>
+        <v>18.7</v>
       </c>
       <c r="Y36">
-        <v>25.09</v>
+        <v>1.37</v>
       </c>
       <c r="Z36">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -5744,66 +4016,18 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>1.37</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>75.36</v>
-      </c>
-      <c r="AM36">
-        <v>4.56</v>
-      </c>
-      <c r="AN36">
-        <v>18.7</v>
-      </c>
-      <c r="AO36">
-        <v>1.37</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>3.19</v>
-      </c>
-      <c r="AS36">
-        <v>14.69</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
         <v>80.75</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>38536</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202201</v>
@@ -5815,10 +4039,10 @@
         <v>5019274320</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>4617035000</v>
@@ -5827,7 +4051,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>647593</v>
@@ -5839,7 +4063,7 @@
         <v>13289</v>
       </c>
       <c r="O37">
-        <v>96.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>3.68</v>
@@ -5848,40 +4072,40 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>11.96</v>
+        <v>4.18</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>35.62</v>
       </c>
       <c r="T37">
-        <v>8.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>75.42</v>
+        <v>43.06</v>
       </c>
       <c r="W37">
-        <v>3.68</v>
+        <v>5.94</v>
       </c>
       <c r="X37">
-        <v>38.29</v>
+        <v>7.53</v>
       </c>
       <c r="Y37">
-        <v>55.02</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>6.69</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>49.41</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -5890,66 +4114,18 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>3.68</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>4.18</v>
-      </c>
-      <c r="AI37">
-        <v>35.62</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>43.06</v>
-      </c>
-      <c r="AM37">
-        <v>5.94</v>
-      </c>
-      <c r="AN37">
-        <v>7.53</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>3.01</v>
-      </c>
-      <c r="AS37">
-        <v>49.41</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
         <v>47.58</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>40087</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202202</v>
@@ -5961,10 +4137,10 @@
         <v>5019274320</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>4617035000</v>
@@ -5973,7 +4149,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>1604549</v>
@@ -5985,19 +4161,19 @@
         <v>34544</v>
       </c>
       <c r="O38">
-        <v>95.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>40.24</v>
+        <v>45.09</v>
       </c>
       <c r="S38">
-        <v>24.64</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -6006,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>30.91</v>
+        <v>16.56</v>
       </c>
       <c r="W38">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="X38">
-        <v>14.25</v>
+        <v>34.16</v>
       </c>
       <c r="Y38">
-        <v>53.59</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>32.16</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -6027,75 +4203,27 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>36.35</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>45.09</v>
       </c>
       <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>45.09</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>16.56</v>
-      </c>
-      <c r="AM38">
-        <v>4.18</v>
-      </c>
-      <c r="AN38">
-        <v>34.16</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>36.35</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>45.09</v>
-      </c>
-      <c r="AV38">
         <v>18.56</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>41633</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202203</v>
@@ -6107,10 +4235,10 @@
         <v>5019274320</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>4617035000</v>
@@ -6119,7 +4247,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>316587</v>
@@ -6131,49 +4259,49 @@
         <v>14275</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
-        <v>11.56</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>9.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>79.33</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="Y39">
-        <v>91.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>90.37</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -6184,64 +4312,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-      <c r="AG39">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>12.72</v>
-      </c>
-      <c r="AN39">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AS39">
-        <v>90.37</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>43196</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202204</v>
@@ -6253,10 +4333,10 @@
         <v>5019274320</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <v>4617035000</v>
@@ -6265,7 +4345,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>726172</v>
@@ -6277,117 +4357,69 @@
         <v>17625</v>
       </c>
       <c r="O40">
-        <v>76.81</v>
+        <v>4.47</v>
       </c>
       <c r="P40">
-        <v>23.19</v>
+        <v>12.2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="R40">
-        <v>3.55</v>
+        <v>46.1</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1.06</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <v>29.65</v>
       </c>
-      <c r="T40">
-        <v>22.34</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>21.28</v>
-      </c>
-      <c r="W40">
-        <v>23.19</v>
-      </c>
-      <c r="X40">
-        <v>45.53</v>
-      </c>
       <c r="Y40">
-        <v>21.28</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>33.19</v>
+        <v>4.47</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>34.26</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="AE40">
-        <v>4.47</v>
+        <v>42.55</v>
       </c>
       <c r="AF40">
-        <v>12.2</v>
-      </c>
-      <c r="AG40">
-        <v>6.52</v>
-      </c>
-      <c r="AH40">
-        <v>46.1</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>1.06</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>29.65</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>4.47</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>12.2</v>
-      </c>
-      <c r="AS40">
-        <v>34.26</v>
-      </c>
-      <c r="AT40">
-        <v>6.52</v>
-      </c>
-      <c r="AU40">
-        <v>42.55</v>
-      </c>
-      <c r="AV40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>44765</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202205</v>
@@ -6399,10 +4431,10 @@
         <v>5019274320</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>4617035000</v>
@@ -6411,7 +4443,7 @@
         <v>60.90909090909091</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>225205</v>
@@ -6423,105 +4455,57 @@
         <v>10900</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>3.44</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="V41">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>90.37</v>
+      </c>
+      <c r="AC41">
+        <v>3.67</v>
+      </c>
+      <c r="AD41">
         <v>5.96</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>96.33</v>
-      </c>
-      <c r="Y41">
-        <v>3.67</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>86.93000000000001</v>
-      </c>
-      <c r="AG41">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>3.44</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>90.37</v>
-      </c>
-      <c r="AS41">
-        <v>3.67</v>
-      </c>
-      <c r="AT41">
-        <v>5.96</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
         <v>0</v>
       </c>
     </row>
